--- a/medicine/Enfance/Berthe_Bernage/Berthe_Bernage.xlsx
+++ b/medicine/Enfance/Berthe_Bernage/Berthe_Bernage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berthe Bernage (Paris, 11 août 1886-Paris, 2 mai 1972[1]) est une écrivaine française. Elle est connue notamment pour sa série Brigitte, commencée en 1925, qui raconte la vie de Brigitte Hauteville depuis l'anniversaire de ses dix-huit ans à sa vieillesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berthe Bernage (Paris, 11 août 1886-Paris, 2 mai 1972) est une écrivaine française. Elle est connue notamment pour sa série Brigitte, commencée en 1925, qui raconte la vie de Brigitte Hauteville depuis l'anniversaire de ses dix-huit ans à sa vieillesse.
 Elle est aussi connue sous le pseudonyme de Bettine ou celui de Bernerette.
-La série Brigitte a été rééditée en France jusqu'en 2004[2].
+La série Brigitte a été rééditée en France jusqu'en 2004.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille de Siméon-Auguste Barthélémy et de Louise-Marie Jenny Deltour, Berthe Marie Henriette Bernage naquit à Paris, rue d'Artois dans le quartier bourgeois de Saint-Philippe-du-Roule en 1886, dans une famille d'universitaires tant du côté paternel que maternel. Elle était la cadette de six filles.
 Son grand-père paternel, Prosper Bernage, professeur dans le secondaire au lycée de Castres, eut pour élèves des noms devenus illustres, comme Jean Jaurès ou Sully Prudhomme.
@@ -548,7 +562,9 @@
           <t>Début de carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès son enfance elle observait et notait le comportement de son entourage bourgeois, milieu dans lequel elle évoluait, où seuls ordre, discipline, devoir, sacrifice, amour de la patrie et bons sentiments étaient de rigueur. C'est du moins ce qu'elle croyait et retint. Ses tableaux enfantins devinrent peu à peu des contes qu'elle lisait à ses amis puis qu'elle faisait paraître dans quelques revues. Ainsi, en 1923, elle entama véritablement sa carrière littéraire, notamment par le biais de nombreux articles, chroniques et nouvelles dans la revue Les Veillées des chaumières.
 Très active dans les organisations catholiques, elle participa en octobre 1932 avec Marguerite Bourcet à une retraite d'écrivains catholiques organisée par le père Bessières au couvent de la Solitude à Versailles : y furent fondées les Journées des Femmes écrivains catholiques, rencontres-retraites qui se tinrent trois fois par an dans les années suivantes.
@@ -581,7 +597,9 @@
           <t>Les dernières années</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1937, à la mort de leur mère, Berthe et Geneviève quittèrent la rue d'Artois et s'installèrent au 201 rue du Faubourg-Saint-Honoré où elles restèrent jusqu'à leur mort. Geneviève mourut le 29 mars 1972 et Berthe la rejoignit au cimetière 34 jours plus tard, le 2 mai.
 Outre les romans pour enfants, et la série Giboulée, qui narre les aventures d'une adolescente parisienne et de ses deux frères, François et Dominique, elle a écrit plus de cinquante livres qui comprennent des recueils de nouvelles, des romans indépendants (La Marguerite s'effeuilla et La Marguerite refleurira, Mamie Soleil), la série Brigitte et Le Roman d'Elisabeth ainsi que des livres de savoir-vivre, qui sont encore édités.
@@ -615,11 +633,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste exhaustive)
-Série Brigitte
-Primitivement, une nouvelle chronique paraît dans le magazine Les Veillées des chaumières, en 1925, qui met en scène des "impressions de jeune fille". Cette jeune fille, qui fête ses dix-huit ans, va à son premier bal, joue au tennis, part en vacances, a des amies aussi différentes que possible et deux frères (Yves et Denis), va rencontrer un jeune artiste, médaillé de 14-18, Olivier Hauteville. Brigitte n'était pas destinée à devenir une "saga", mais les lectrices des Veillées des Chaumières ont tellement réclamé une suite que Berthe Bernage en a continué l'écriture. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Brigitte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Primitivement, une nouvelle chronique paraît dans le magazine Les Veillées des chaumières, en 1925, qui met en scène des "impressions de jeune fille". Cette jeune fille, qui fête ses dix-huit ans, va à son premier bal, joue au tennis, part en vacances, a des amies aussi différentes que possible et deux frères (Yves et Denis), va rencontrer un jeune artiste, médaillé de 14-18, Olivier Hauteville. Brigitte n'était pas destinée à devenir une "saga", mais les lectrices des Veillées des Chaumières ont tellement réclamé une suite que Berthe Bernage en a continué l'écriture. 
 Prix Sobrier-Arnould de l'Académie française en 1930 pour Brigitte.
 Brigitte jeune fille, Brigitte jeune femme, 1928
 Brigitte Maman, 1931
@@ -672,16 +727,86 @@
 Brigitte et l'archange, 1989
 Brigitte et l'enfant du courage, 1996
 Brigitte et la lettre d'Argentine, 1998
-Série Le Roman d'Elisabeth
-Prix Montyon de l'Académie française en 1950 pour le recueil des six romans que compte la série.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Le Roman d'Elisabeth</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Montyon de l'Académie française en 1950 pour le recueil des six romans que compte la série.
 Le Roman d'Elisabeth - Le Matin d'un beau jour, 1937
 Le Roman d'Elisabeth - L'Âge des ailes, 1938
 Le Roman d'Elisabeth - Jeunesse, 1942
 Le Roman d'Elisabeth - La Relève, 1943
 Le Roman d'Elisabeth - Liberté chérie, 1946
 Le Roman d'Elisabeth - Espérance, 1948
-Série Giboulée
-Série de huit romans parue aux éditions Gautier-Languereau, dans la collection Nouvelle Bibliothèque de Suzette. Illustrations de Pierre Couronne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Giboulée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Série de huit romans parue aux éditions Gautier-Languereau, dans la collection Nouvelle Bibliothèque de Suzette. Illustrations de Pierre Couronne.
 La série relate les aventures d'une adolescente parisienne et de ses deux frères. 
 1959 : Mademoiselle Giboulée (réédition en 1967 avec nouvelle illustration de couverture)
 1960 : L'Intrépide Giboulée (réédition en 1967 avec nouvelle illustration de couverture)
@@ -691,7 +816,43 @@
 1964 : Giboulée antiquaire (réédition en 1967 avec nouvelle illustration de couverture)
 1965 : Giboulée en Bretagne (réédition en 1967 avec nouvelle illustration de couverture)
 1967 : Giboulée en Hollande
-Autres écrits
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Bernage</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres écrits</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Fourmi n'est pas prêteuse, 1925
 Histoire d'un Pierrot et de trois petites filles, 1928
 Le savoir-vivre et les usages du monde, 1928
@@ -729,31 +890,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Berthe_Bernage</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Berthe_Bernage</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1930 : Prix Sobrier-Arnould de l'Académie française pour Brigitte
 1939 : Prix Louis-Paul-Miller de l'Académie française pour Elle et son mari
